--- a/Top 10 adults.xlsx
+++ b/Top 10 adults.xlsx
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +423,7 @@
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -433,8 +433,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -455,8 +461,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -466,8 +475,11 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -477,8 +489,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -488,8 +503,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -499,8 +517,11 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -510,8 +531,11 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -521,8 +545,11 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -531,6 +558,9 @@
       </c>
       <c r="C10" t="s">
         <v>18</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
